--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\DATN\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\DATN\watchshop_fe_datn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D1E1A2-71BE-4DC1-8205-0CCD4F5F11B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57508793-F866-411D-9E5D-1CF465799AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBBD88C0-E70C-428C-B145-7CDF66776F7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DBBD88C0-E70C-428C-B145-7CDF66776F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>brand_name</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Mr. Daddy 2.0 Chronograph Black Leather Black (Four Time Zone) Dial4</t>
+  </si>
+  <si>
+    <t>Mr. Daddy 2.0 Chronograph Black Leather Black (Four Time Zone) Dial5</t>
   </si>
 </sst>
 </file>
@@ -299,6 +305,156 @@
         <a:xfrm>
           <a:off x="23983952" y="885827"/>
           <a:ext cx="1685924" cy="1685924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1990726</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1800226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26DA84F-4C73-4CCC-843D-409979B476F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24507827" y="314327"/>
+          <a:ext cx="1685924" cy="847724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1990726</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1800226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F549C18-FFFD-455B-958A-A239AEE464BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24507827" y="314327"/>
+          <a:ext cx="1685924" cy="847724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304802</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1990726</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1800226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C0DD63-6E38-4A5D-83B7-95EACB771329}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24507827" y="1276352"/>
+          <a:ext cx="1685924" cy="847724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -607,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1603A0EA-D8EF-4AC1-8B4A-F600564E27DF}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -760,6 +916,124 @@
         <v>34</v>
       </c>
     </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
